--- a/xlsx/混合经济_intext.xlsx
+++ b/xlsx/混合经济_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>混合经济</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_美國_混合经济</t>
+    <t>政策_政策_美国_混合经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -257,19 +257,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -443,49 +443,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E7%B6%93%E6%BF%9F%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>傳統經濟體系</t>
+    <t>传统经济体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>計劃經濟體系</t>
+    <t>计划经济体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>市場經濟體系</t>
+    <t>市场经济体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E8%AA%BF%E6%8E%A7</t>
   </si>
   <si>
-    <t>宏觀調控</t>
+    <t>宏观调控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
@@ -3020,7 +3014,7 @@
         <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G75" t="n">
         <v>19</v>
@@ -3046,10 +3040,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3075,10 +3069,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3133,10 +3127,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3162,10 +3156,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3191,10 +3185,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3220,10 +3214,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3249,10 +3243,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>

--- a/xlsx/混合经济_intext.xlsx
+++ b/xlsx/混合经济_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_美國_混合经济</t>
+    <t>体育运动_体育运动_纳粹德国_混合经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
